--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2448813333333333</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N2">
-        <v>0.734644</v>
+        <v>2.000627</v>
       </c>
       <c r="O2">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>9.714117862312444</v>
+        <v>28.04289358077155</v>
       </c>
       <c r="R2">
-        <v>87.427060760812</v>
+        <v>252.3860422269439</v>
       </c>
       <c r="S2">
-        <v>0.04151582078744099</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="T2">
-        <v>0.04151582078744099</v>
+        <v>0.1594435451835853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>172.981738</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6668756666666668</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N3">
         <v>2.000627</v>
       </c>
       <c r="O3">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>26.45407364182456</v>
+        <v>38.45243728330288</v>
       </c>
       <c r="R3">
-        <v>238.086662776421</v>
+        <v>346.0719355497259</v>
       </c>
       <c r="S3">
-        <v>0.113058395623616</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="T3">
-        <v>0.113058395623616</v>
+        <v>0.2186291119973148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.66057933333334</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H4">
-        <v>172.981738</v>
+        <v>297.456009</v>
       </c>
       <c r="I4">
-        <v>0.2246820449144221</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J4">
-        <v>0.2246820449144221</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2448813333333333</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N4">
-        <v>0.734644</v>
+        <v>2.000627</v>
       </c>
       <c r="O4">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2685817968311001</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>14.11999954791911</v>
+        <v>66.12205810196032</v>
       </c>
       <c r="R4">
-        <v>127.079995931272</v>
+        <v>595.0985229176429</v>
       </c>
       <c r="S4">
-        <v>0.06034550733880143</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="T4">
-        <v>0.06034550733880143</v>
+        <v>0.3759503393701321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.66057933333334</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H5">
-        <v>172.981738</v>
+        <v>194.619688</v>
       </c>
       <c r="I5">
-        <v>0.2246820449144221</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J5">
-        <v>0.2246820449144221</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,276 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6668756666666668</v>
+        <v>0.6668756666666665</v>
       </c>
       <c r="N5">
         <v>2.000627</v>
       </c>
       <c r="O5">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.7314182031688999</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>38.4524372833029</v>
+        <v>43.26237806048621</v>
       </c>
       <c r="R5">
-        <v>346.071935549726</v>
+        <v>389.3614025443759</v>
       </c>
       <c r="S5">
-        <v>0.1643365375756207</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="T5">
-        <v>0.1643365375756207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>94.308965</v>
-      </c>
-      <c r="H6">
-        <v>282.926895</v>
-      </c>
-      <c r="I6">
-        <v>0.3674873085729315</v>
-      </c>
-      <c r="J6">
-        <v>0.3674873085729315</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.2448813333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.734644</v>
-      </c>
-      <c r="O6">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="P6">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="Q6">
-        <v>23.09450509448666</v>
-      </c>
-      <c r="R6">
-        <v>207.85054585038</v>
-      </c>
-      <c r="S6">
-        <v>0.09870040164914286</v>
-      </c>
-      <c r="T6">
-        <v>0.09870040164914286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>94.308965</v>
-      </c>
-      <c r="H7">
-        <v>282.926895</v>
-      </c>
-      <c r="I7">
-        <v>0.3674873085729315</v>
-      </c>
-      <c r="J7">
-        <v>0.3674873085729315</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.6668756666666668</v>
-      </c>
-      <c r="N7">
-        <v>2.000627</v>
-      </c>
-      <c r="O7">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="P7">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="Q7">
-        <v>62.89235390701834</v>
-      </c>
-      <c r="R7">
-        <v>566.031185163165</v>
-      </c>
-      <c r="S7">
-        <v>0.2687869069237886</v>
-      </c>
-      <c r="T7">
-        <v>0.2687869069237886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>64.993678</v>
-      </c>
-      <c r="H8">
-        <v>194.981034</v>
-      </c>
-      <c r="I8">
-        <v>0.2532564301015895</v>
-      </c>
-      <c r="J8">
-        <v>0.2532564301015895</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.2448813333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.734644</v>
-      </c>
-      <c r="O8">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="P8">
-        <v>0.2685817968311001</v>
-      </c>
-      <c r="Q8">
-        <v>15.91573852687733</v>
-      </c>
-      <c r="R8">
-        <v>143.241646741896</v>
-      </c>
-      <c r="S8">
-        <v>0.0680200670557148</v>
-      </c>
-      <c r="T8">
-        <v>0.0680200670557148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>64.993678</v>
-      </c>
-      <c r="H9">
-        <v>194.981034</v>
-      </c>
-      <c r="I9">
-        <v>0.2532564301015895</v>
-      </c>
-      <c r="J9">
-        <v>0.2532564301015895</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6668756666666668</v>
-      </c>
-      <c r="N9">
-        <v>2.000627</v>
-      </c>
-      <c r="O9">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="P9">
-        <v>0.7314182031688999</v>
-      </c>
-      <c r="Q9">
-        <v>43.34270234536867</v>
-      </c>
-      <c r="R9">
-        <v>390.084321108318</v>
-      </c>
-      <c r="S9">
-        <v>0.1852363630458747</v>
-      </c>
-      <c r="T9">
-        <v>0.1852363630458747</v>
+        <v>0.2459770034489679</v>
       </c>
     </row>
   </sheetData>
